--- a/data/trans_dic/P25A_12_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_12_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos de ansiedad</t>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,28</t>
+          <t>1,13; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,5</t>
+          <t>0,93; 5,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,34</t>
+          <t>1,02; 6,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 9,1</t>
+          <t>2,29; 8,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,65</t>
+          <t>3,8; 10,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,7</t>
+          <t>5,23; 12,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,25</t>
+          <t>5,69; 13,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,99</t>
+          <t>6,25; 14,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,43</t>
+          <t>3,26; 7,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 8,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 8,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 10,76</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,65</t>
+          <t>1,72; 8,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,96</t>
+          <t>1,57; 9,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,92</t>
+          <t>1,75; 8,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 13,99</t>
+          <t>3,62; 12,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,02</t>
+          <t>4,27; 13,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 13,41</t>
+          <t>5,3; 15,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,86</t>
+          <t>2,92; 10,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,62</t>
+          <t>6,92; 16,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,58</t>
+          <t>3,63; 9,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 10,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 8,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 12,41</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,0</t>
+          <t>0,0; 23,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0,0; 20,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,2</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 16,22</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,96</t>
+          <t>2,5; 20,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,67</t>
+          <t>0,0; 16,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 10,94</t>
+          <t>2,37; 22,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,91</t>
+          <t>1,18; 11,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 10,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 11,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 13,62</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,81%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,37</t>
+          <t>2,11; 6,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,91</t>
+          <t>1,46; 5,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,59</t>
+          <t>1,77; 5,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,07</t>
+          <t>3,13; 8,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,93</t>
+          <t>4,83; 9,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,31</t>
+          <t>6,39; 12,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,24</t>
+          <t>5,15; 10,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,83</t>
+          <t>7,31; 13,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,77</t>
+          <t>3,96; 7,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 7,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 7,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 9,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12950</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9588</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11759</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24696</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34816</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35337</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37653</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55011</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47766</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44925</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49412</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>79707</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4846; 29514</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3391; 21618</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3897; 26038</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11742; 45693</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19360; 54499</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21926; 53105</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23050; 55220</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35111; 83671</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30577; 73502</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29174; 68237</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31744; 70486</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53705; 115596</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15485</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12670</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12818</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27330</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33009</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32045</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20185</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47425</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>48494</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>44715</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>33003</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>74755</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6186; 31476</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4949; 29461</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5641; 28963</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14936; 51486</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18183; 58846</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17701; 50479</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9774; 35788</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29732; 70858</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28468; 73451</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27601; 65919</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20010; 56172</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51523; 104554</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6436</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9810</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8416</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6436</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13133</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23725</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17258</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16877</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9976</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2037; 17016</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13698</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2642; 25098</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2331; 23425</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1836; 16390</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1697; 19748</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3708; 31433</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34522</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22258</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55349</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>70154</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>73818</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62169</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>112245</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>104676</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>96076</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89563</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>167594</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18780; 58655</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11138; 40952</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13962; 46267</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>32756; 86348</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>49767; 101879</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53374; 101038</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42348; 84701</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80616; 148975</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>76013; 143604</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>71299; 124911</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>67620; 117922</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>127518; 212498</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
